--- a/sg02/Assets/Resources/Config/Excel/GlobalConfig.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/GlobalConfig.xlsx
@@ -9,16 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterate="1" iterateCount="10" iterateDelta="1.0000000474974513E-3"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,18 +24,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +64,92 @@
   </si>
   <si>
     <t>640,480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDebuggingOpen</t>
+  </si>
+  <si>
+    <t>是否打开 Debug log</t>
+  </si>
+  <si>
+    <t>IsMapEditorMode</t>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FontButtonsVSpace</t>
+  </si>
+  <si>
+    <t>-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是编辑器模式</t>
+  </si>
+  <si>
+    <t>字体按钮的间距</t>
+  </si>
+  <si>
+    <t>PathShapeFace</t>
+  </si>
+  <si>
+    <t>AnimationSpeed</t>
+  </si>
+  <si>
+    <t>Shape/FACE/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物脸的图片的路径</t>
+  </si>
+  <si>
+    <t>0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画播放的速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroopFlag</t>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG27</t>
+  </si>
+  <si>
+    <t>盗贼势力的旗帜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlagOffset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗帜的偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlagOffset2</t>
+  </si>
+  <si>
+    <t>FlagOffset3</t>
+  </si>
+  <si>
+    <t>FlagOffset4</t>
+  </si>
+  <si>
+    <t>0,6,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,12,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,18 +568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,66 +589,161 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
